--- a/Others_Solutions/Решения из книги Евич/Вариант 5/Задание 9/9.xlsx
+++ b/Others_Solutions/Решения из книги Евич/Вариант 5/Задание 9/9.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hem12\Documents\Документы Миша\Школьные предметы\ЕГЭ информатика\Solutions\PrepareForEGE_MishaPolykovsky\Others_Solutions\Решения из книги Евич\Вариант 5\Задание 9\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DF7B70-50A4-4994-AF39-7537F6B5712B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="16260" windowHeight="5832"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,8 +32,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -40,6 +54,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -50,22 +69,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -114,7 +139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -147,9 +172,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,6 +224,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -357,19 +416,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>44105</v>
       </c>
@@ -446,7 +505,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44106</v>
       </c>
@@ -523,7 +582,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44107</v>
       </c>
@@ -600,7 +659,7 @@
         <v>52.13</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44108</v>
       </c>
@@ -677,7 +736,7 @@
         <v>67.75</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44109</v>
       </c>
@@ -754,7 +813,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44110</v>
       </c>
@@ -831,7 +890,7 @@
         <v>63.73</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44111</v>
       </c>
@@ -908,7 +967,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44112</v>
       </c>
@@ -985,7 +1044,7 @@
         <v>53.96</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44113</v>
       </c>
@@ -1062,7 +1121,7 @@
         <v>71.209999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44114</v>
       </c>
@@ -1139,7 +1198,7 @@
         <v>59.51</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44115</v>
       </c>
@@ -1216,7 +1275,7 @@
         <v>70.650000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44116</v>
       </c>
@@ -1293,7 +1352,7 @@
         <v>59.47</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44117</v>
       </c>
@@ -1370,7 +1429,7 @@
         <v>60.35</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44118</v>
       </c>
@@ -1447,7 +1506,7 @@
         <v>58.15</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44119</v>
       </c>
@@ -1524,7 +1583,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44120</v>
       </c>
@@ -1601,7 +1660,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44121</v>
       </c>
@@ -1678,7 +1737,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44122</v>
       </c>
@@ -1755,7 +1814,7 @@
         <v>59.79</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44123</v>
       </c>
@@ -1832,7 +1891,7 @@
         <v>59.82</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44124</v>
       </c>
@@ -1909,7 +1968,7 @@
         <v>59.26</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44125</v>
       </c>
@@ -1986,7 +2045,7 @@
         <v>65.97</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44126</v>
       </c>
@@ -2063,7 +2122,7 @@
         <v>54.78</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44127</v>
       </c>
@@ -2140,7 +2199,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44128</v>
       </c>
@@ -2217,7 +2276,7 @@
         <v>70.83</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44129</v>
       </c>
@@ -2294,7 +2353,7 @@
         <v>63.41</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44130</v>
       </c>
@@ -2371,7 +2430,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44131</v>
       </c>
@@ -2448,7 +2507,7 @@
         <v>54.46</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44132</v>
       </c>
@@ -2525,7 +2584,7 @@
         <v>58.57</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44133</v>
       </c>
@@ -2602,7 +2661,7 @@
         <v>54.97</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44134</v>
       </c>
@@ -2679,7 +2738,7 @@
         <v>58.89</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44135</v>
       </c>
@@ -2754,6 +2813,306 @@
       </c>
       <c r="Y31" s="1">
         <v>64.489999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>MAX(B7:B31)</f>
+        <v>71.22</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" ref="C33:Y33" si="0">MAX(C7:C31)</f>
+        <v>70.86</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.44</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.89</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.67</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.69</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.459999999999994</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="0"/>
+        <v>71.95</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.3</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.739999999999995</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.53</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.63</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="0"/>
+        <v>68.790000000000006</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="0"/>
+        <v>70.67</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.430000000000007</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.849999999999994</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="0"/>
+        <v>71.98</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.3</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.14</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.599999999999994</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.97</v>
+      </c>
+      <c r="X33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.56</v>
+      </c>
+      <c r="Y33" s="1">
+        <f t="shared" si="0"/>
+        <v>71.209999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>MIN(B7:B31)</f>
+        <v>53.02</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ref="C34:Y34" si="1">MIN(C7:C31)</f>
+        <v>53.27</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.65</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.28</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.22</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="1"/>
+        <v>53.92</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.29</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.08</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.79</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="1"/>
+        <v>54.39</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.74</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.54</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.22</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="1"/>
+        <v>54.47</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="1"/>
+        <v>53.17</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.87</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.8</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.01</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.05</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.23</v>
+      </c>
+      <c r="W34" s="1">
+        <f t="shared" si="1"/>
+        <v>52.13</v>
+      </c>
+      <c r="X34" s="1">
+        <f t="shared" si="1"/>
+        <v>55.99</v>
+      </c>
+      <c r="Y34" s="1">
+        <f t="shared" si="1"/>
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>B33-B34</f>
+        <v>18.199999999999996</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:Y36" si="2">C33-C34</f>
+        <v>17.589999999999996</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>19.79</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>20.61</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>20.180000000000007</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>18.75</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="2"/>
+        <v>20.379999999999995</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="2"/>
+        <v>19.950000000000003</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="2"/>
+        <v>19.509999999999998</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="2"/>
+        <v>18.349999999999994</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="2"/>
+        <v>19.79</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="2"/>
+        <v>20.089999999999996</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="2"/>
+        <v>16.570000000000007</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="2"/>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="2"/>
+        <v>19.260000000000005</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="2"/>
+        <v>19.979999999999997</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="2"/>
+        <v>19.180000000000007</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="2"/>
+        <v>20.29</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="2"/>
+        <v>20.090000000000003</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" si="2"/>
+        <v>20.369999999999997</v>
+      </c>
+      <c r="W36" s="1">
+        <f t="shared" si="2"/>
+        <v>20.839999999999996</v>
+      </c>
+      <c r="X36" s="1">
+        <f t="shared" si="2"/>
+        <v>16.57</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" si="2"/>
+        <v>18.109999999999992</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="I40" s="3">
+        <f>MAX(B36:Y36)</f>
+        <v>20.839999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -2762,24 +3121,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
